--- a/NetAgent/src/main/resources/InventoryReceiptReport_NA.xlsx
+++ b/NetAgent/src/main/resources/InventoryReceiptReport_NA.xlsx
@@ -271,7 +271,7 @@
       </c>
       <c s="4" t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">06/07/2022</t>
+          <t xml:space="preserve">06/10/2022</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="F6">
@@ -281,7 +281,7 @@
       </c>
       <c s="4" t="inlineStr" r="G6">
         <is>
-          <t xml:space="preserve">06/17/2022</t>
+          <t xml:space="preserve">06/20/2022</t>
         </is>
       </c>
     </row>
@@ -298,7 +298,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2022 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"6/17/2022 1:46 AM &amp;C&amp;"Arial,Regular"&amp;9 Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
+&amp;"-,Regular"6/19/2022 9:48 PM &amp;C&amp;"Arial,Regular"&amp;9 Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>

--- a/NetAgent/src/main/resources/InventoryReceiptReport_NA.xlsx
+++ b/NetAgent/src/main/resources/InventoryReceiptReport_NA.xlsx
@@ -271,7 +271,7 @@
       </c>
       <c s="4" t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">06/10/2022</t>
+          <t xml:space="preserve">06/11/2022</t>
         </is>
       </c>
       <c s="3" t="inlineStr" r="F6">
@@ -281,7 +281,7 @@
       </c>
       <c s="4" t="inlineStr" r="G6">
         <is>
-          <t xml:space="preserve">06/20/2022</t>
+          <t xml:space="preserve">06/21/2022</t>
         </is>
       </c>
     </row>
@@ -298,7 +298,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;9 *Data provided should be considered CONFIDENTIAL and PROPRIETARY* 
 &amp;"-,Regular"©2011-2022 MNX Global Logistics. All rights reserved. 
-&amp;"-,Regular"6/19/2022 9:48 PM &amp;C&amp;"Arial,Regular"&amp;9 Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page </oddFooter>
+&amp;"-,Regular"6/21/2022 12:46 AM &amp;C&amp;"Arial,Regular"&amp;9 Print User : automation &amp;R&amp;"Arial,Regular"&amp;9Page</oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
 </worksheet>
